--- a/excel/exp3acc.xlsx
+++ b/excel/exp3acc.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Frequently Used\Fall 2015\CS760\Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\public\food-image-classification\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="exp3acc" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -590,7 +590,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1260,7 +1260,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-24AC-4D0C-AD25-1FED71031584}"/>
             </c:ext>
@@ -1917,7 +1917,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-24AC-4D0C-AD25-1FED71031584}"/>
             </c:ext>
@@ -2574,7 +2574,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-24AC-4D0C-AD25-1FED71031584}"/>
             </c:ext>
@@ -3231,7 +3231,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-24AC-4D0C-AD25-1FED71031584}"/>
             </c:ext>
@@ -3245,11 +3245,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="471492224"/>
-        <c:axId val="471492880"/>
+        <c:axId val="192345760"/>
+        <c:axId val="192344640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="471492224"/>
+        <c:axId val="192345760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -3270,6 +3270,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -3363,15 +3377,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471492880"/>
+        <c:crossAx val="192344640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="471492880"/>
+        <c:axId val="192344640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="30"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3389,6 +3404,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -3487,2987 +3516,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="471492224"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>exp3acc!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>20k samples</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>exp3acc!$F$2:$F$102</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>101</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>exp3acc!$G$2:$G$102</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>15.074999630499999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13.875000178800001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>12.775000929800001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.699999123800001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11.299999058199999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>11.0749989748</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11.125000566199999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>10.925000905999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.6500007212</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.424999892700001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>9.9749989807600006</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>9.5250003039799989</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>9.2249996960200011</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8.8500000536400005</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8.7249994278000003</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8.5749991238099987</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8.5249990224799994</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8.2999996840999994</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8.2250006496899992</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8.2500003278299996</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8.2000002265000003</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>8.199999481439999</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>8.1749998033000004</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>8.0499984324000007</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7.9499989748000006</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>7.7999994158700003</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7.5249999761600002</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7.2999998927100007</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>6.9999992847399994</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6.8499989807599997</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>6.7999996244899998</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>6.5999992191799999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>6.5249986946600007</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>6.3749991357300004</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>6.3749991357300004</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>6.3249997794599997</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>6.2249988317499998</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>6.1749991029499993</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>6.0499984770999999</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>5.8999989181800006</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>5.8499988168500003</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>5.7749990373799998</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>5.6999988853900003</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>5.7249989360600004</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>5.7249989360600004</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>5.6999988853900003</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>5.6499987840700001</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>5.5999990552700005</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>5.5749993771300002</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>5.5249992757999999</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>5.5499989539400003</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>5.4999992251399998</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>5.4999992251399998</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>5.4999992251399998</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>5.5499989539400003</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>5.5499989539400003</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>5.5499989539400003</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>5.5749993771300002</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>5.5749993771300002</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>5.4999995976700005</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>5.4999995976700005</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>5.4999995976700005</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>5.4999995976700005</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>5.4749991744799997</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>5.3749989718200002</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>5.3749997168800006</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>5.3499992936799998</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>5.3499992936799998</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>5.3499992936799998</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>5.3749997168800006</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>5.3749997168800006</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>5.3749997168800006</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>5.3749997168800006</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>5.3500000387400002</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>5.3500000387400002</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>5.3749997168800006</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>5.3749997168800006</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>5.3500000387400002</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>5.3500000387400002</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>5.3249996155500003</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>5.3249996155500003</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>5.3249996155500003</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>5.3249996155500003</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>5.29999993742</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>5.2749998867499999</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>5.2499998360900006</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>5.2499998360900006</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>5.2499998360900006</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>5.2499998360900006</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>5.2499998360900006</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>5.2749998867499999</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>5.2749998867499999</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>5.2749998867499999</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>5.2749998867499999</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>5.2749998867499999</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>5.2749998867499999</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>5.2749998867499999</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>5.2500002086200004</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>5.2500002086200004</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>5.2500002086200004</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>5.2500002086200004</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C3F7-4360-9ED4-E4524C2C70E7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>exp3acc!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>15k samples</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>exp3acc!$F$2:$F$102</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>101</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>exp3acc!$H$2:$H$102</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>28.899994492499996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>17.550002038500001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16.425000131100003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.124999821200001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.049999505300001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.3749992549400005</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.7499991059299997</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.3500005304800009</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.9749986529400001</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.6749980449699997</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.34999999404</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.2499990463299993</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.8999998271499994</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.8499997258200001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6.6749989986399996</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6.6499985754500006</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.57499879599</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6.5499991178499997</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6.4999990165200003</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6.47499933839</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6.4999990165200003</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6.5749995410399995</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>6.47499933839</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6.57499879599</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6.6499985754500006</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.7499987781000002</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>6.6999986767799999</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>6.7499980330500007</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>6.8499989807599997</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6.9249987602199994</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>6.8499989807599997</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>6.8999990820899999</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>6.9499991834200001</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>6.9749988615499996</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>6.9749988615499996</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>6.9499984383599998</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>6.9749981164900001</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>6.9499984383599998</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>6.8999983370300004</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>6.7499980330500007</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>6.7249983549100003</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>6.5999984741200004</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>6.5499991178499997</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>6.5249986946600007</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>6.4750000834500003</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>6.47499933839</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>6.3749998807899999</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>6.2749989330800009</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>6.2249995768100002</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>6.0999993234899996</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>6.0749992728200004</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>6.0999989509599999</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>6.0499988496299997</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>6.0749992728200004</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>6.0249999165499997</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>5.89999966323</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>5.7999998331100002</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>5.74999973178</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>5.7249993085900002</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>5.7499986141899999</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>5.7499986141899999</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>5.6749984622000005</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>5.6499984115399995</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>5.5999983102100002</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>5.5999983102100002</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>5.5749982595400001</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>5.5499985814099997</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>5.5499985814099997</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>5.5249985307499996</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>5.5249989032700002</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>5.6249987334</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>5.6499987840700001</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>5.6249991059299997</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>5.5999986827399999</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>5.5499985814099997</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>5.5499985814099997</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>5.5499985814099997</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>5.5249989032700002</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>5.4999992251399998</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>5.4749991744799997</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>5.5249992757999999</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>5.4749991744799997</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>5.4749991744799997</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>5.4499994963400002</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>5.4249994456800001</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>5.39999939501</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>5.39999939501</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>5.39999939501</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>5.39999939501</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>5.39999939501</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>5.4249994456800001</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>5.4249994456800001</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>5.39999939501</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>5.3749989718200002</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>5.3749989718200002</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>5.3999990224800003</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>5.4249990731499995</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>5.4249990731499995</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>5.4499991238100005</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>5.4249994456800001</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>5.4249994456800001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C3F7-4360-9ED4-E4524C2C70E7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>exp3acc!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>10k samples</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>exp3acc!$F$2:$F$102</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>101</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>exp3acc!$I$2:$I$102</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>22.000004351099999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>13.1500005722</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11.049999296699999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10.3500001132</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.5500007271800005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.3250006437300001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8.9749999344300004</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.6250007152600006</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.3749987185000005</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.9750001430499999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.8500010073199995</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.6500006020100004</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7.55000039935</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.4250005185600001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>7.4249990284400003</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>7.5999990105600004</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>7.6499983668300002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>7.5249992311000007</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>7.5749993324300009</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>7.5999990105600004</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8.9999988675100013</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>7.85000026226</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7.6750002801399999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7.6499991118900006</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7.5749993324300009</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>7.4999988079099991</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7.5499989092399993</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7.4749991297700005</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7.3749989271199992</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>7.3999993503100008</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>7.3999986052499995</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>7.3749989271199992</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>7.4249990284400003</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>7.3749996721700004</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>7.3999993503100008</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>7.3749989271199992</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>7.2999984026</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>7.2499983012699998</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>7.2249986231299994</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>7.1749985217999992</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>7.2249993681899998</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>7.1999989449999999</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>7.1499988436699997</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>7.0499986410099993</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>7.0249989628799998</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>7.0499986410099993</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>7.0499986410099993</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>7.0499986410099993</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>7.0249989628799998</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>7.0499993860699997</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>7.0249989628799998</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>7.0249989628799998</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>6.9749988615499996</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>6.9499999284700005</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>6.9499999284700005</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>6.9499999284700005</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>6.9499999284700005</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>6.97499960661</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>6.97499960661</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>6.97499960661</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>6.97499960661</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>6.9499999284700005</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>6.9499999284700005</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>6.9499999284700005</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>7.0000000298000007</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>7.0000000298000007</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>6.9750003516699994</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>6.9750003516699994</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>6.9750003516699994</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>6.9750003516699994</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>6.9750003516699994</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>6.9750003516699994</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>6.9750003516699994</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>6.9750003516699994</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>6.9500006735300008</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>6.9250002503399992</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>6.9250002503399992</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>6.9250002503399992</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>6.8999998271499994</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>6.8999998271499994</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>6.8999998271499994</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>6.8499997258200001</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>6.8499997258200001</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>6.8749994039499995</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>6.8749994039499995</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>6.8999998271499994</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>6.8749994039499995</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>6.8499997258200001</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>6.8499997258200001</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>6.8499997258200001</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>6.8499997258200001</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>6.8499997258200001</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>6.8249993026300002</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>6.7999996244899998</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>6.7999996244899998</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>6.7999996244899998</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>6.7749992013</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>6.7749992013</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>6.8249993026300002</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>6.8249993026300002</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>6.8249993026300002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-C3F7-4360-9ED4-E4524C2C70E7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>exp3acc!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>5k samples</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>exp3acc!$F$2:$F$102</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>101</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>exp3acc!$J$2:$J$102</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="101"/>
-                <c:pt idx="0">
-                  <c:v>18.050000071500001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>23.924998939000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17.499999702</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13.1500005722</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16.400001943100001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>14.549998939</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11.7499984801</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11.400000005999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>10.7250012457</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.699999332399999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10.399999469500001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10.3500001132</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>10.474999994000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>10.324999690099999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>10.175000876199999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>9.8999999463599995</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>9.7000002860999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>9.5249995589300003</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>9.4750002026600004</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>9.4750002026600004</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>9.4250001013299993</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>9.4250001013299993</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>9.3500003218700005</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>9.2500001192100001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>9.1750003397499995</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>9.2000007629400002</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>9.2249989509599999</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>9.0749993920299996</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>9.0000003576300003</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>9.0250000357599998</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>9.0250007808199992</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>9.1250002384200002</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>9.1499999165499997</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>9.1499991715000011</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>9.2249982058999986</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>8.9999981224500001</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>9.0499989688400007</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>8.9749976992599994</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>8.9499980211299999</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>8.89999866486</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>8.8749989867199996</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>8.89999866486</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>9.0500004589599996</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>9.0250000357599998</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>9.0250000357599998</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>9.0500004589599996</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>9.0500004589599996</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>9.1000005602799998</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>9.1500006616099991</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>9.1500006616099991</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>9.1750010847999999</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>9.1500006616099991</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>9.1500006616099991</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>9.2000007629400002</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>9.1750010847999999</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>9.2250019311899987</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>9.250001609329999</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>9.250001609329999</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>9.2250011861299992</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>9.2500008642699996</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>9.2500008642699996</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>9.2250004410699997</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>9.2250011861299992</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>9.2250011861299992</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>9.2000000178800008</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>9.2000000178800008</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>9.2249996960200011</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>9.2000000178800008</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>9.2000000178800008</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>9.2249996960200011</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>9.2249996960200011</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>8.6000010371200002</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>8.5500009357900009</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>8.5000008344700007</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>8.5000008344700007</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>8.4750011563300003</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>8.4500007331400013</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>8.3499997854199997</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>8.2749992608999996</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>8.2249991595700003</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>8.2249991595700003</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>8.2499995827700001</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>8.2749992608999996</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>8.2999996840999994</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>8.3249993622299989</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>8.3249993622299989</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>8.29999893904</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>8.29999893904</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>8.2749992608999996</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>8.2499995827700001</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>8.2749992608999996</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>8.2999996840999994</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>8.3249993622299989</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>8.2750000059599991</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>8.2500003278299996</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>8.2250006496899992</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>8.199999481439999</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>8.199999481439999</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>8.199999481439999</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>8.199999481439999</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>8.2249999046299997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-C3F7-4360-9ED4-E4524C2C70E7}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="471492224"/>
-        <c:axId val="471492880"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="471492224"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="100"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="2000"/>
-                  <a:t>Epochs</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="471492880"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-        <c:majorUnit val="10"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="471492880"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="30"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US" sz="2000"/>
-                  <a:t>Test error</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="2000" baseline="0"/>
-                  <a:t> (%)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US" sz="2000"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="471492224"/>
+        <c:crossAx val="192345760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6549,46 +3598,6 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7144,522 +4153,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -7694,38 +4187,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>529590</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -7749,958 +4210,6 @@
           </cell>
           <cell r="I1" t="str">
             <v>5k samples</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="E2">
-            <v>1</v>
-          </cell>
-          <cell r="F2">
-            <v>15.624997019799999</v>
-          </cell>
-          <cell r="G2">
-            <v>23.824997246300001</v>
-          </cell>
-          <cell r="H2">
-            <v>23.649998009199997</v>
-          </cell>
-          <cell r="I2">
-            <v>27.750000357600001</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="E3">
-            <v>2</v>
-          </cell>
-          <cell r="F3">
-            <v>14.024998247600001</v>
-          </cell>
-          <cell r="G3">
-            <v>17.399999499300002</v>
-          </cell>
-          <cell r="H3">
-            <v>13.0750000477</v>
-          </cell>
-          <cell r="I3">
-            <v>18.875001370899998</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="E4">
-            <v>3</v>
-          </cell>
-          <cell r="F4">
-            <v>12.999999523200001</v>
-          </cell>
-          <cell r="G4">
-            <v>12.624999880800001</v>
-          </cell>
-          <cell r="H4">
-            <v>10.974999517200001</v>
-          </cell>
-          <cell r="I4">
-            <v>15.549997985399999</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="E5">
-            <v>4</v>
-          </cell>
-          <cell r="F5">
-            <v>12.1500000358</v>
-          </cell>
-          <cell r="G5">
-            <v>10.5999998748</v>
-          </cell>
-          <cell r="H5">
-            <v>11.3000005484</v>
-          </cell>
-          <cell r="I5">
-            <v>13.149999082100001</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="E6">
-            <v>5</v>
-          </cell>
-          <cell r="F6">
-            <v>11.450002342499999</v>
-          </cell>
-          <cell r="G6">
-            <v>9.5249995589300003</v>
-          </cell>
-          <cell r="H6">
-            <v>10.274998843700001</v>
-          </cell>
-          <cell r="I6">
-            <v>14.3250018358</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="E7">
-            <v>6</v>
-          </cell>
-          <cell r="F7">
-            <v>10.724999755599999</v>
-          </cell>
-          <cell r="G7">
-            <v>8.9250005781699997</v>
-          </cell>
-          <cell r="H7">
-            <v>10.399999469500001</v>
-          </cell>
-          <cell r="I7">
-            <v>12.0749995112</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="E8">
-            <v>7</v>
-          </cell>
-          <cell r="F8">
-            <v>10.049999505300001</v>
-          </cell>
-          <cell r="G8">
-            <v>7.87499919534</v>
-          </cell>
-          <cell r="H8">
-            <v>9.799999743699999</v>
-          </cell>
-          <cell r="I8">
-            <v>12.150000780799999</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="E9">
-            <v>8</v>
-          </cell>
-          <cell r="F9">
-            <v>8.9500010013600004</v>
-          </cell>
-          <cell r="G9">
-            <v>7.34999999404</v>
-          </cell>
-          <cell r="H9">
-            <v>9.7000002860999999</v>
-          </cell>
-          <cell r="I9">
-            <v>11.525000631800001</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="E10">
-            <v>9</v>
-          </cell>
-          <cell r="F10">
-            <v>8.2000009715599997</v>
-          </cell>
-          <cell r="G10">
-            <v>7.4500009417499999</v>
-          </cell>
-          <cell r="H10">
-            <v>9.8249994218300003</v>
-          </cell>
-          <cell r="I10">
-            <v>11.450000852300001</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="E11">
-            <v>10</v>
-          </cell>
-          <cell r="F11">
-            <v>7.3999993503100008</v>
-          </cell>
-          <cell r="G11">
-            <v>7.4500001967000005</v>
-          </cell>
-          <cell r="H11">
-            <v>9.6749991178499997</v>
-          </cell>
-          <cell r="I11">
-            <v>11.474998295300001</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="E12">
-            <v>11</v>
-          </cell>
-          <cell r="F12">
-            <v>7.1249991655299993</v>
-          </cell>
-          <cell r="G12">
-            <v>7.2750009596299998</v>
-          </cell>
-          <cell r="H12">
-            <v>8.950000256300001</v>
-          </cell>
-          <cell r="I12">
-            <v>10.525000095399999</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="E13">
-            <v>12</v>
-          </cell>
-          <cell r="F13">
-            <v>6.8999990820899999</v>
-          </cell>
-          <cell r="G13">
-            <v>7.6499998569500001</v>
-          </cell>
-          <cell r="H13">
-            <v>8.6249992251399998</v>
-          </cell>
-          <cell r="I13">
-            <v>10.500000417200001</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="E14">
-            <v>13</v>
-          </cell>
-          <cell r="F14">
-            <v>6.3999995589300003</v>
-          </cell>
-          <cell r="G14">
-            <v>7.3749996721700004</v>
-          </cell>
-          <cell r="H14">
-            <v>8.3750002086199995</v>
-          </cell>
-          <cell r="I14">
-            <v>10.2999992669</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="E15">
-            <v>14</v>
-          </cell>
-          <cell r="F15">
-            <v>6.2499992549400005</v>
-          </cell>
-          <cell r="G15">
-            <v>7.3000013828299997</v>
-          </cell>
-          <cell r="H15">
-            <v>8.1500016152899999</v>
-          </cell>
-          <cell r="I15">
-            <v>10.149999707899999</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="E16">
-            <v>15</v>
-          </cell>
-          <cell r="F16">
-            <v>6.1499994248199998</v>
-          </cell>
-          <cell r="G16">
-            <v>7.2999998927100007</v>
-          </cell>
-          <cell r="H16">
-            <v>7.75000080466</v>
-          </cell>
-          <cell r="I16">
-            <v>10.125000029800001</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="E17">
-            <v>16</v>
-          </cell>
-          <cell r="F17">
-            <v>6.0749992728200004</v>
-          </cell>
-          <cell r="G17">
-            <v>7.2999998927100007</v>
-          </cell>
-          <cell r="H17">
-            <v>10.000000149</v>
-          </cell>
-          <cell r="I17">
-            <v>9.9750004708799995</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="E18">
-            <v>17</v>
-          </cell>
-          <cell r="F18">
-            <v>5.8749988675099996</v>
-          </cell>
-          <cell r="G18">
-            <v>7.34999999404</v>
-          </cell>
-          <cell r="H18">
-            <v>8.6000002920600007</v>
-          </cell>
-          <cell r="I18">
-            <v>9.8249994218300003</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="E19">
-            <v>18</v>
-          </cell>
-          <cell r="F19">
-            <v>5.8499988168500003</v>
-          </cell>
-          <cell r="G19">
-            <v>7.3999993503100008</v>
-          </cell>
-          <cell r="H19">
-            <v>8.2499995827700001</v>
-          </cell>
-          <cell r="I19">
-            <v>9.7249984741199995</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="E20">
-            <v>19</v>
-          </cell>
-          <cell r="F20">
-            <v>5.8999985456499999</v>
-          </cell>
-          <cell r="G20">
-            <v>7.4749991297700005</v>
-          </cell>
-          <cell r="H20">
-            <v>8.1249997019800002</v>
-          </cell>
-          <cell r="I20">
-            <v>9.6749983727900002</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="E21">
-            <v>20</v>
-          </cell>
-          <cell r="F21">
-            <v>5.8499984443200006</v>
-          </cell>
-          <cell r="G21">
-            <v>7.4250005185600001</v>
-          </cell>
-          <cell r="H21">
-            <v>7.9999998211900003</v>
-          </cell>
-          <cell r="I21">
-            <v>9.6249990165200003</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="E22">
-            <v>21</v>
-          </cell>
-          <cell r="F22">
-            <v>5.7499986141899999</v>
-          </cell>
-          <cell r="G22">
-            <v>7.4500001967000005</v>
-          </cell>
-          <cell r="H22">
-            <v>7.87499919534</v>
-          </cell>
-          <cell r="I22">
-            <v>9.499998390670001</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="E23">
-            <v>22</v>
-          </cell>
-          <cell r="F23">
-            <v>5.6749988347300002</v>
-          </cell>
-          <cell r="G23">
-            <v>7.4500001967000005</v>
-          </cell>
-          <cell r="H23">
-            <v>7.8249998390700002</v>
-          </cell>
-          <cell r="I23">
-            <v>9.4749987125399997</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="E24">
-            <v>23</v>
-          </cell>
-          <cell r="F24">
-            <v>5.6499991565899998</v>
-          </cell>
-          <cell r="G24">
-            <v>7.4000000953700003</v>
-          </cell>
-          <cell r="H24">
-            <v>7.8500010073199995</v>
-          </cell>
-          <cell r="I24">
-            <v>9.4750002026600004</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="E25">
-            <v>24</v>
-          </cell>
-          <cell r="F25">
-            <v>5.6499995291199996</v>
-          </cell>
-          <cell r="G25">
-            <v>7.3250003159000006</v>
-          </cell>
-          <cell r="H25">
-            <v>7.77499973774</v>
-          </cell>
-          <cell r="I25">
-            <v>9.474999457600001</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="E26">
-            <v>25</v>
-          </cell>
-          <cell r="F26">
-            <v>5.6249998509900001</v>
-          </cell>
-          <cell r="G26">
-            <v>7.2249993681899998</v>
-          </cell>
-          <cell r="H26">
-            <v>7.8000001609299998</v>
-          </cell>
-          <cell r="I26">
-            <v>9.4499990343999993</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="E27">
-            <v>26</v>
-          </cell>
-          <cell r="F27">
-            <v>5.6249998509900001</v>
-          </cell>
-          <cell r="G27">
-            <v>7.1749992668599996</v>
-          </cell>
-          <cell r="H27">
-            <v>7.7999994158700003</v>
-          </cell>
-          <cell r="I27">
-            <v>9.375</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="E28">
-            <v>27</v>
-          </cell>
-          <cell r="F28">
-            <v>5.6000001728499997</v>
-          </cell>
-          <cell r="G28">
-            <v>7.0999994873999999</v>
-          </cell>
-          <cell r="H28">
-            <v>7.7499993145500001</v>
-          </cell>
-          <cell r="I28">
-            <v>9.275000542399999</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="E29">
-            <v>28</v>
-          </cell>
-          <cell r="F29">
-            <v>5.4999999702000002</v>
-          </cell>
-          <cell r="G29">
-            <v>7.0749998092699995</v>
-          </cell>
-          <cell r="H29">
-            <v>7.7499993145500001</v>
-          </cell>
-          <cell r="I29">
-            <v>9.3000002205399994</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="E30">
-            <v>29</v>
-          </cell>
-          <cell r="F30">
-            <v>5.4249998182099999</v>
-          </cell>
-          <cell r="G30">
-            <v>7.0499993860699997</v>
-          </cell>
-          <cell r="H30">
-            <v>7.7249996364099998</v>
-          </cell>
-          <cell r="I30">
-            <v>9.275000542399999</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="E31">
-            <v>30</v>
-          </cell>
-          <cell r="F31">
-            <v>5.4249998182099999</v>
-          </cell>
-          <cell r="G31">
-            <v>7.0499993860699997</v>
-          </cell>
-          <cell r="H31">
-            <v>7.6749995350800004</v>
-          </cell>
-          <cell r="I31">
-            <v>9.400000423189999</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="E32">
-            <v>31</v>
-          </cell>
-          <cell r="F32">
-            <v>5.4249998182099999</v>
-          </cell>
-          <cell r="G32">
-            <v>7.0249989628799998</v>
-          </cell>
-          <cell r="H32">
-            <v>7.5749993324300009</v>
-          </cell>
-          <cell r="I32">
-            <v>9.4249993562699999</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="E33">
-            <v>32</v>
-          </cell>
-          <cell r="F33">
-            <v>5.3999997675399998</v>
-          </cell>
-          <cell r="G33">
-            <v>6.97499960661</v>
-          </cell>
-          <cell r="H33">
-            <v>7.5749993324300009</v>
-          </cell>
-          <cell r="I33">
-            <v>9.4749987125399997</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="E34">
-            <v>33</v>
-          </cell>
-          <cell r="F34">
-            <v>5.3999997675399998</v>
-          </cell>
-          <cell r="G34">
-            <v>6.9499999284700005</v>
-          </cell>
-          <cell r="H34">
-            <v>7.5249992311000007</v>
-          </cell>
-          <cell r="I34">
-            <v>9.4249993562699999</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="E35">
-            <v>34</v>
-          </cell>
-          <cell r="F35">
-            <v>5.3749997168800006</v>
-          </cell>
-          <cell r="G35">
-            <v>6.8749994039499995</v>
-          </cell>
-          <cell r="H35">
-            <v>7.4749991297700005</v>
-          </cell>
-          <cell r="I35">
-            <v>9.4249993562699999</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="E36">
-            <v>35</v>
-          </cell>
-          <cell r="F36">
-            <v>5.3499996662100004</v>
-          </cell>
-          <cell r="G36">
-            <v>6.8999998271499994</v>
-          </cell>
-          <cell r="H36">
-            <v>7.3999993503100008</v>
-          </cell>
-          <cell r="I36">
-            <v>9.274999052290001</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="E37">
-            <v>36</v>
-          </cell>
-          <cell r="F37">
-            <v>5.3499996662100004</v>
-          </cell>
-          <cell r="G37">
-            <v>6.7999996244899998</v>
-          </cell>
-          <cell r="H37">
-            <v>7.3999993503100008</v>
-          </cell>
-          <cell r="I37">
-            <v>9.2499993741500006</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="E38">
-            <v>37</v>
-          </cell>
-          <cell r="F38">
-            <v>5.3249996155500003</v>
-          </cell>
-          <cell r="G38">
-            <v>6.7999996244899998</v>
-          </cell>
-          <cell r="H38">
-            <v>7.4249997735000006</v>
-          </cell>
-          <cell r="I38">
-            <v>9.274999052290001</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="E39">
-            <v>38</v>
-          </cell>
-          <cell r="F39">
-            <v>5.3749997168800006</v>
-          </cell>
-          <cell r="G39">
-            <v>6.7499995231599996</v>
-          </cell>
-          <cell r="H39">
-            <v>7.4749998748299999</v>
-          </cell>
-          <cell r="I39">
-            <v>9.2499986290900011</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="E40">
-            <v>39</v>
-          </cell>
-          <cell r="F40">
-            <v>5.3749997168800006</v>
-          </cell>
-          <cell r="G40">
-            <v>6.7999996244899998</v>
-          </cell>
-          <cell r="H40">
-            <v>7.449999451640001</v>
-          </cell>
-          <cell r="I40">
-            <v>9.2249982058999986</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="E41">
-            <v>40</v>
-          </cell>
-          <cell r="F41">
-            <v>5.3749997168800006</v>
-          </cell>
-          <cell r="G41">
-            <v>6.7499995231599996</v>
-          </cell>
-          <cell r="H41">
-            <v>7.3999993503100008</v>
-          </cell>
-          <cell r="I41">
-            <v>9.1999977827099997</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="E42">
-            <v>41</v>
-          </cell>
-          <cell r="F42">
-            <v>5.3749997168800006</v>
-          </cell>
-          <cell r="G42">
-            <v>6.7249998450300001</v>
-          </cell>
-          <cell r="H42">
-            <v>7.3999993503100008</v>
-          </cell>
-          <cell r="I42">
-            <v>9.1499984264399998</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="E43">
-            <v>42</v>
-          </cell>
-          <cell r="F43">
-            <v>5.3749997168800006</v>
-          </cell>
-          <cell r="G43">
-            <v>6.6999994218299994</v>
-          </cell>
-          <cell r="H43">
-            <v>7.3749996721700004</v>
-          </cell>
-          <cell r="I43">
-            <v>9.1499991715000011</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="E44">
-            <v>43</v>
-          </cell>
-          <cell r="F44">
-            <v>5.3499996662100004</v>
-          </cell>
-          <cell r="G44">
-            <v>6.6499993205100001</v>
-          </cell>
-          <cell r="H44">
-            <v>7.3749996721700004</v>
-          </cell>
-          <cell r="I44">
-            <v>9.1499991715000011</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="E45">
-            <v>44</v>
-          </cell>
-          <cell r="F45">
-            <v>5.3499996662100004</v>
-          </cell>
-          <cell r="G45">
-            <v>6.6249996423699997</v>
-          </cell>
-          <cell r="H45">
-            <v>7.3499992489800006</v>
-          </cell>
-          <cell r="I45">
-            <v>9.1249994933600007</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="E46">
-            <v>45</v>
-          </cell>
-          <cell r="F46">
-            <v>5.3499996662100004</v>
-          </cell>
-          <cell r="G46">
-            <v>6.6499993205100001</v>
-          </cell>
-          <cell r="H46">
-            <v>7.3499992489800006</v>
-          </cell>
-          <cell r="I46">
-            <v>9.0999998152300012</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="E47">
-            <v>46</v>
-          </cell>
-          <cell r="F47">
-            <v>5.3749997168800006</v>
-          </cell>
-          <cell r="G47">
-            <v>6.3749998807899999</v>
-          </cell>
-          <cell r="H47">
-            <v>7.3499992489800006</v>
-          </cell>
-          <cell r="I47">
-            <v>9.1250002384200002</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="E48">
-            <v>47</v>
-          </cell>
-          <cell r="F48">
-            <v>5.3749997168800006</v>
-          </cell>
-          <cell r="G48">
-            <v>6.4000003039799997</v>
-          </cell>
-          <cell r="H48">
-            <v>7.3249995708499993</v>
-          </cell>
-          <cell r="I48">
-            <v>9.0750001370900009</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="E49">
-            <v>48</v>
-          </cell>
-          <cell r="F49">
-            <v>5.3999997675399998</v>
-          </cell>
-          <cell r="G49">
-            <v>6.4249999821200001</v>
-          </cell>
-          <cell r="H49">
-            <v>7.3499992489800006</v>
-          </cell>
-          <cell r="I49">
-            <v>9.0750001370900009</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="E50">
-            <v>49</v>
-          </cell>
-          <cell r="F50">
-            <v>5.4249998182099999</v>
-          </cell>
-          <cell r="G50">
-            <v>6.4249999821200001</v>
-          </cell>
-          <cell r="H50">
-            <v>7.3499992489800006</v>
-          </cell>
-          <cell r="I50">
-            <v>9.0750001370900009</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="E51">
-            <v>50</v>
-          </cell>
-          <cell r="F51">
-            <v>5.4250001907299996</v>
-          </cell>
-          <cell r="G51">
-            <v>6.4249999821200001</v>
-          </cell>
-          <cell r="H51">
-            <v>7.3249995708499993</v>
-          </cell>
-          <cell r="I51">
-            <v>9.0500004589599996</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="E52">
-            <v>51</v>
-          </cell>
-          <cell r="F52">
-            <v>5.4250001907299996</v>
-          </cell>
-          <cell r="G52">
-            <v>6.45000040531</v>
-          </cell>
-          <cell r="H52">
-            <v>7.3499992489800006</v>
-          </cell>
-          <cell r="I52">
-            <v>9.0750001370900009</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="E53">
-            <v>52</v>
-          </cell>
-          <cell r="F53">
-            <v>5.4250001907299996</v>
-          </cell>
-          <cell r="G53">
-            <v>6.4000003039799997</v>
-          </cell>
-          <cell r="H53">
-            <v>7.3499992489800006</v>
-          </cell>
-          <cell r="I53">
-            <v>9.1249994933600007</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="E54">
-            <v>53</v>
-          </cell>
-          <cell r="F54">
-            <v>5.3999997675399998</v>
-          </cell>
-          <cell r="G54">
-            <v>6.3749998807899999</v>
-          </cell>
-          <cell r="H54">
-            <v>7.3249995708499993</v>
-          </cell>
-          <cell r="I54">
-            <v>9.1249994933600007</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="E55">
-            <v>54</v>
-          </cell>
-          <cell r="F55">
-            <v>5.3999997675399998</v>
-          </cell>
-          <cell r="G55">
-            <v>6.3500002026600004</v>
-          </cell>
-          <cell r="H55">
-            <v>7.34999999404</v>
-          </cell>
-          <cell r="I55">
-            <v>9.1249994933600007</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="E56">
-            <v>55</v>
-          </cell>
-          <cell r="F56">
-            <v>5.3999997675399998</v>
-          </cell>
-          <cell r="G56">
-            <v>6.3000001013300002</v>
-          </cell>
-          <cell r="H56">
-            <v>7.34999999404</v>
-          </cell>
-          <cell r="I56">
-            <v>9.1249994933600007</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="E57">
-            <v>56</v>
-          </cell>
-          <cell r="F57">
-            <v>5.3999997675399998</v>
-          </cell>
-          <cell r="G57">
-            <v>6.25</v>
-          </cell>
-          <cell r="H57">
-            <v>7.34999999404</v>
-          </cell>
-          <cell r="I57">
-            <v>9.1499991715000011</v>
           </cell>
         </row>
       </sheetData>
@@ -8974,13 +4483,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="W29" sqref="W29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="X8" sqref="X8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9006,7 +4515,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.15074999630499999</v>
       </c>
@@ -9039,7 +4548,7 @@
         <v>18.050000071500001</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.13875000178800001</v>
       </c>
@@ -9072,7 +4581,7 @@
         <v>23.924998939000002</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.12775000929800001</v>
       </c>
@@ -9105,7 +4614,7 @@
         <v>17.499999702</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.11699999123800001</v>
       </c>
@@ -9138,7 +4647,7 @@
         <v>13.1500005722</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.112999990582</v>
       </c>
@@ -9171,7 +4680,7 @@
         <v>16.400001943100001</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.110749989748</v>
       </c>
@@ -9204,7 +4713,7 @@
         <v>14.549998939</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.111250005662</v>
       </c>
@@ -9237,7 +4746,7 @@
         <v>11.7499984801</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.10925000906</v>
       </c>
@@ -9270,7 +4779,7 @@
         <v>11.400000005999999</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.10650000721199999</v>
       </c>
@@ -9303,7 +4812,7 @@
         <v>10.7250012457</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.104249998927</v>
       </c>
@@ -9336,7 +4845,7 @@
         <v>10.699999332399999</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9.9749989807599998E-2</v>
       </c>
@@ -9369,7 +4878,7 @@
         <v>10.399999469500001</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9.5250003039799996E-2</v>
       </c>
@@ -9402,7 +4911,7 @@
         <v>10.3500001132</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>9.2249996960200004E-2</v>
       </c>
@@ -9435,7 +4944,7 @@
         <v>10.474999994000001</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>8.8500000536400003E-2</v>
       </c>
@@ -9468,7 +4977,7 @@
         <v>10.324999690099999</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8.7249994277999995E-2</v>
       </c>
@@ -9501,7 +5010,7 @@
         <v>10.175000876199999</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>8.5749991238099996E-2</v>
       </c>
@@ -9534,7 +5043,7 @@
         <v>9.8999999463599995</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>8.5249990224799996E-2</v>
       </c>
@@ -9567,7 +5076,7 @@
         <v>9.7000002860999999</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>8.2999996840999998E-2</v>
       </c>
@@ -9600,7 +5109,7 @@
         <v>9.5249995589300003</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>8.2250006496899994E-2</v>
       </c>
@@ -9633,7 +5142,7 @@
         <v>9.4750002026600004</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>8.2500003278299996E-2</v>
       </c>
@@ -9666,7 +5175,7 @@
         <v>9.4750002026600004</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>8.2000002264999997E-2</v>
       </c>
@@ -9699,7 +5208,7 @@
         <v>9.4250001013299993</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>8.1999994814399998E-2</v>
       </c>
@@ -9732,7 +5241,7 @@
         <v>9.4250001013299993</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>8.1749998032999996E-2</v>
       </c>
@@ -9765,7 +5274,7 @@
         <v>9.3500003218700005</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>8.0499984324000004E-2</v>
       </c>
@@ -9798,7 +5307,7 @@
         <v>9.2500001192100001</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>7.9499989748000002E-2</v>
       </c>
@@ -9831,7 +5340,7 @@
         <v>9.1750003397499995</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>7.7999994158700001E-2</v>
       </c>
@@ -9864,7 +5373,7 @@
         <v>9.2000007629400002</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>7.5249999761600003E-2</v>
       </c>
@@ -9897,7 +5406,7 @@
         <v>9.2249989509599999</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>7.2999998927100004E-2</v>
       </c>
@@ -9930,7 +5439,7 @@
         <v>9.0749993920299996</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>6.9999992847399994E-2</v>
       </c>
@@ -9963,7 +5472,7 @@
         <v>9.0000003576300003</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6.8499989807599998E-2</v>
       </c>
@@ -9996,7 +5505,7 @@
         <v>9.0250000357599998</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>6.7999996244899996E-2</v>
       </c>
@@ -10029,7 +5538,7 @@
         <v>9.0250007808199992</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>6.59999921918E-2</v>
       </c>
@@ -10062,7 +5571,7 @@
         <v>9.1250002384200002</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>6.5249986946600003E-2</v>
       </c>
@@ -10095,7 +5604,7 @@
         <v>9.1499999165499997</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>6.3749991357300001E-2</v>
       </c>
@@ -10128,7 +5637,7 @@
         <v>9.1499991715000011</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>6.3749991357300001E-2</v>
       </c>
@@ -10161,7 +5670,7 @@
         <v>9.2249982058999986</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>6.3249997794599999E-2</v>
       </c>
@@ -10194,7 +5703,7 @@
         <v>8.9999981224500001</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>6.2249988317499998E-2</v>
       </c>
@@ -10227,7 +5736,7 @@
         <v>9.0499989688400007</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>6.1749991029499997E-2</v>
       </c>
@@ -10260,7 +5769,7 @@
         <v>8.9749976992599994</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>6.0499984771E-2</v>
       </c>
@@ -10293,7 +5802,7 @@
         <v>8.9499980211299999</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>5.8999989181800001E-2</v>
       </c>
@@ -10326,7 +5835,7 @@
         <v>8.89999866486</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5.8499988168500001E-2</v>
       </c>
@@ -10359,7 +5868,7 @@
         <v>8.8749989867199996</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>5.7749990373799999E-2</v>
       </c>
@@ -10392,7 +5901,7 @@
         <v>8.89999866486</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>5.6999988853900001E-2</v>
       </c>
@@ -10425,7 +5934,7 @@
         <v>9.0500004589599996</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>5.7249989360600002E-2</v>
       </c>
@@ -10458,7 +5967,7 @@
         <v>9.0250000357599998</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>5.7249989360600002E-2</v>
       </c>
@@ -10491,7 +6000,7 @@
         <v>9.0250000357599998</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5.6999988853900001E-2</v>
       </c>
@@ -10524,7 +6033,7 @@
         <v>9.0500004589599996</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>5.6499987840699997E-2</v>
       </c>
@@ -10557,7 +6066,7 @@
         <v>9.0500004589599996</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>5.5999990552700003E-2</v>
       </c>
@@ -10590,7 +6099,7 @@
         <v>9.1000005602799998</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>5.5749993771300001E-2</v>
       </c>
@@ -10623,7 +6132,7 @@
         <v>9.1500006616099991</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>5.5249992758000001E-2</v>
       </c>
@@ -10656,7 +6165,7 @@
         <v>9.1500006616099991</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>5.5499989539400003E-2</v>
       </c>
@@ -10689,7 +6198,7 @@
         <v>9.1750010847999999</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>5.4999992251400003E-2</v>
       </c>
@@ -10722,7 +6231,7 @@
         <v>9.1500006616099991</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>5.4999992251400003E-2</v>
       </c>
@@ -10755,7 +6264,7 @@
         <v>9.1500006616099991</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>5.4999992251400003E-2</v>
       </c>
@@ -10788,7 +6297,7 @@
         <v>9.2000007629400002</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>5.5499989539400003E-2</v>
       </c>
@@ -10821,7 +6330,7 @@
         <v>9.1750010847999999</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>5.5499989539400003E-2</v>
       </c>
@@ -10854,7 +6363,7 @@
         <v>9.2250019311899987</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>5.5499989539400003E-2</v>
       </c>
@@ -10887,7 +6396,7 @@
         <v>9.250001609329999</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>5.5749993771300001E-2</v>
       </c>
@@ -10920,7 +6429,7 @@
         <v>9.250001609329999</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>5.5749993771300001E-2</v>
       </c>
@@ -10953,7 +6462,7 @@
         <v>9.2250011861299992</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>5.4999995976700002E-2</v>
       </c>
@@ -10986,7 +6495,7 @@
         <v>9.2500008642699996</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>5.4999995976700002E-2</v>
       </c>
@@ -11019,7 +6528,7 @@
         <v>9.2500008642699996</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>5.4999995976700002E-2</v>
       </c>
@@ -11052,7 +6561,7 @@
         <v>9.2250004410699997</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>5.4999995976700002E-2</v>
       </c>
@@ -11085,7 +6594,7 @@
         <v>9.2250011861299992</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>5.4749991744799997E-2</v>
       </c>
@@ -11118,7 +6627,7 @@
         <v>9.2250011861299992</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>5.3749989718199997E-2</v>
       </c>
@@ -11151,7 +6660,7 @@
         <v>9.2000000178800008</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>5.3749997168800003E-2</v>
       </c>
@@ -11184,7 +6693,7 @@
         <v>9.2000000178800008</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>5.3499992936800002E-2</v>
       </c>
@@ -11217,7 +6726,7 @@
         <v>9.2249996960200011</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>5.3499992936800002E-2</v>
       </c>
@@ -11250,7 +6759,7 @@
         <v>9.2000000178800008</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>5.3499992936800002E-2</v>
       </c>
@@ -11283,7 +6792,7 @@
         <v>9.2000000178800008</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>5.3749997168800003E-2</v>
       </c>
@@ -11316,7 +6825,7 @@
         <v>9.2249996960200011</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>5.3749997168800003E-2</v>
       </c>
@@ -11349,7 +6858,7 @@
         <v>9.2249996960200011</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>5.3749997168800003E-2</v>
       </c>
@@ -11382,7 +6891,7 @@
         <v>8.6000010371200002</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>5.3749997168800003E-2</v>
       </c>
@@ -11415,7 +6924,7 @@
         <v>8.5500009357900009</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>5.35000003874E-2</v>
       </c>
@@ -11448,7 +6957,7 @@
         <v>8.5000008344700007</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>5.35000003874E-2</v>
       </c>
@@ -11481,7 +6990,7 @@
         <v>8.5000008344700007</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>5.3749997168800003E-2</v>
       </c>
@@ -11514,7 +7023,7 @@
         <v>8.4750011563300003</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>5.3749997168800003E-2</v>
       </c>
@@ -11547,7 +7056,7 @@
         <v>8.4500007331400013</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>5.35000003874E-2</v>
       </c>
@@ -11580,7 +7089,7 @@
         <v>8.3499997854199997</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>5.35000003874E-2</v>
       </c>
@@ -11613,7 +7122,7 @@
         <v>8.2749992608999996</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>5.3249996155500003E-2</v>
       </c>
@@ -11646,7 +7155,7 @@
         <v>8.2249991595700003</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>5.3249996155500003E-2</v>
       </c>
@@ -11679,7 +7188,7 @@
         <v>8.2249991595700003</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>5.3249996155500003E-2</v>
       </c>
@@ -11712,7 +7221,7 @@
         <v>8.2499995827700001</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>5.3249996155500003E-2</v>
       </c>
@@ -11745,7 +7254,7 @@
         <v>8.2749992608999996</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>5.2999999374200003E-2</v>
       </c>
@@ -11778,7 +7287,7 @@
         <v>8.2999996840999994</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>5.2749998867500002E-2</v>
       </c>
@@ -11811,7 +7320,7 @@
         <v>8.3249993622299989</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>5.2499998360900003E-2</v>
       </c>
@@ -11844,7 +7353,7 @@
         <v>8.3249993622299989</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>5.2499998360900003E-2</v>
       </c>
@@ -11877,7 +7386,7 @@
         <v>8.29999893904</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>5.2499998360900003E-2</v>
       </c>
@@ -11910,7 +7419,7 @@
         <v>8.29999893904</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>5.2499998360900003E-2</v>
       </c>
@@ -11943,7 +7452,7 @@
         <v>8.2749992608999996</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>5.2499998360900003E-2</v>
       </c>
@@ -11976,7 +7485,7 @@
         <v>8.2499995827700001</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>5.2749998867500002E-2</v>
       </c>
@@ -12009,7 +7518,7 @@
         <v>8.2749992608999996</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>5.2749998867500002E-2</v>
       </c>
@@ -12042,7 +7551,7 @@
         <v>8.2999996840999994</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>5.2749998867500002E-2</v>
       </c>
@@ -12075,7 +7584,7 @@
         <v>8.3249993622299989</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>5.2749998867500002E-2</v>
       </c>
@@ -12108,7 +7617,7 @@
         <v>8.2750000059599991</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>5.2749998867500002E-2</v>
       </c>
@@ -12141,7 +7650,7 @@
         <v>8.2500003278299996</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>5.2749998867500002E-2</v>
       </c>
@@ -12174,7 +7683,7 @@
         <v>8.2250006496899992</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>5.2749998867500002E-2</v>
       </c>
@@ -12207,7 +7716,7 @@
         <v>8.199999481439999</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>5.2500002086200002E-2</v>
       </c>
@@ -12240,7 +7749,7 @@
         <v>8.199999481439999</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>5.2500002086200002E-2</v>
       </c>
@@ -12273,7 +7782,7 @@
         <v>8.199999481439999</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>5.2500002086200002E-2</v>
       </c>
@@ -12306,7 +7815,7 @@
         <v>8.199999481439999</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>5.2500002086200002E-2</v>
       </c>
@@ -12339,7 +7848,7 @@
         <v>8.2249999046299997</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>5.2500002086200002E-2</v>
       </c>
@@ -12356,7 +7865,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>5.2250001579500001E-2</v>
       </c>
@@ -12373,7 +7882,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>5.2250001579500001E-2</v>
       </c>
@@ -12390,7 +7899,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>5.2250001579500001E-2</v>
       </c>
@@ -12407,7 +7916,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>5.2750002592800001E-2</v>
       </c>
@@ -12424,7 +7933,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>5.2750002592800001E-2</v>
       </c>
@@ -12441,7 +7950,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>5.2750002592800001E-2</v>
       </c>
@@ -12455,7 +7964,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>5.2750002592800001E-2</v>
       </c>
@@ -12469,7 +7978,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>5.2750002592800001E-2</v>
       </c>
@@ -12483,7 +7992,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>5.2750002592800001E-2</v>
       </c>
@@ -12497,7 +8006,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>5.2500005811500002E-2</v>
       </c>
@@ -12511,7 +8020,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>5.2500005811500002E-2</v>
       </c>
@@ -12525,7 +8034,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>5.22500053048E-2</v>
       </c>
@@ -12539,7 +8048,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>5.22500053048E-2</v>
       </c>
@@ -12553,7 +8062,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C117">
         <v>6.6749989986399999E-2</v>
       </c>
@@ -12561,7 +8070,7 @@
         <v>8.0999992787799999E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C118">
         <v>6.64999932051E-2</v>
       </c>
@@ -12569,7 +8078,7 @@
         <v>8.1249989569200001E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C119">
         <v>6.6249996423699997E-2</v>
       </c>
@@ -12577,7 +8086,7 @@
         <v>8.1249989569200001E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C120">
         <v>6.6249996423699997E-2</v>
       </c>
@@ -12585,7 +8094,7 @@
         <v>8.1499993801099999E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C121">
         <v>6.6249996423699997E-2</v>
       </c>
@@ -12593,7 +8102,7 @@
         <v>8.1749990582500001E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C122">
         <v>6.6249996423699997E-2</v>
       </c>
@@ -12601,7 +8110,7 @@
         <v>8.1749990582500001E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C123">
         <v>6.6249996423699997E-2</v>
       </c>
@@ -12609,7 +8118,7 @@
         <v>8.1749990582500001E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C124">
         <v>6.6249996423699997E-2</v>
       </c>
@@ -12617,7 +8126,7 @@
         <v>8.1499993801099999E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C125">
         <v>6.6249996423699997E-2</v>
       </c>
@@ -12625,7 +8134,7 @@
         <v>8.1499993801099999E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C126">
         <v>6.6249996423699997E-2</v>
       </c>
@@ -12633,7 +8142,7 @@
         <v>8.1249989569200001E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C127">
         <v>6.59999921918E-2</v>
       </c>
@@ -12641,7 +8150,7 @@
         <v>8.0999992787799999E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C128">
         <v>6.6249988973099999E-2</v>
       </c>
@@ -12649,7 +8158,7 @@
         <v>8.0749996006499999E-2</v>
       </c>
     </row>
-    <row r="129" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C129">
         <v>6.64999932051E-2</v>
       </c>
@@ -12657,7 +8166,7 @@
         <v>8.0749996006499999E-2</v>
       </c>
     </row>
-    <row r="130" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C130">
         <v>6.64999932051E-2</v>
       </c>
@@ -12665,7 +8174,7 @@
         <v>8.0999992787799999E-2</v>
       </c>
     </row>
-    <row r="131" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C131">
         <v>6.6749982535800001E-2</v>
       </c>
@@ -12673,7 +8182,7 @@
         <v>8.0999992787799999E-2</v>
       </c>
     </row>
-    <row r="132" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C132">
         <v>6.6749982535800001E-2</v>
       </c>
@@ -12681,7 +8190,7 @@
         <v>8.0999992787799999E-2</v>
       </c>
     </row>
-    <row r="133" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C133">
         <v>6.6749982535800001E-2</v>
       </c>
@@ -12689,7 +8198,7 @@
         <v>8.0499991774600002E-2</v>
       </c>
     </row>
-    <row r="134" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C134">
         <v>6.6749982535800001E-2</v>
       </c>
@@ -12697,7 +8206,7 @@
         <v>8.0499991774600002E-2</v>
       </c>
     </row>
-    <row r="135" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C135">
         <v>6.6749982535800001E-2</v>
       </c>
@@ -12705,7 +8214,7 @@
         <v>8.0499991774600002E-2</v>
       </c>
     </row>
-    <row r="136" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C136">
         <v>6.6499985754500002E-2</v>
       </c>
@@ -12713,62 +8222,62 @@
         <v>8.02499949932E-2</v>
       </c>
     </row>
-    <row r="137" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C137">
         <v>6.6499985754500002E-2</v>
       </c>
     </row>
-    <row r="138" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C138">
         <v>6.6749982535800001E-2</v>
       </c>
     </row>
-    <row r="139" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C139">
         <v>6.6749989986399999E-2</v>
       </c>
     </row>
-    <row r="140" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C140">
         <v>6.6749989986399999E-2</v>
       </c>
     </row>
-    <row r="141" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C141">
         <v>6.6749989986399999E-2</v>
       </c>
     </row>
-    <row r="142" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C142">
         <v>6.6749989986399999E-2</v>
       </c>
     </row>
-    <row r="143" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C143">
         <v>6.6999986767800002E-2</v>
       </c>
     </row>
-    <row r="144" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C144">
         <v>6.6749982535800001E-2</v>
       </c>
     </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C145">
         <v>6.6749982535800001E-2</v>
       </c>
     </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C146">
         <v>6.6749982535800001E-2</v>
       </c>
     </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C147">
         <v>6.6499985754500002E-2</v>
       </c>
     </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C148">
         <v>6.6499985754500002E-2</v>
       </c>
